--- a/image/substanceprotein.xlsx
+++ b/image/substanceprotein.xlsx
@@ -631,42 +631,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.77734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/substanceprotein.xlsx
+++ b/image/substanceprotein.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="151">
   <si>
     <t>Path</t>
   </si>
@@ -156,7 +156,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -353,10 +353,6 @@
   </si>
   <si>
     <t>SubstanceProtein.disulfideLinkage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>The disulphide bond between two cysteine residues either on the same subunit or on two different subunits shall be described. The position of the disulfide bonds in the SubstanceProtein shall be listed in increasing order of subunit number and position within subunit followed by the abbreviation of the amino acids involved. The disulfide linkage positions shall actually contain the amino acid Cysteine at the respective positions</t>
@@ -631,42 +627,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1920,13 +1916,13 @@
         <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1997,7 +1993,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2020,13 +2016,13 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2077,7 +2073,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -2089,7 +2085,7 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>37</v>
@@ -2097,7 +2093,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2120,13 +2116,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2177,7 +2173,7 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
@@ -2192,12 +2188,12 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2226,7 +2222,7 @@
         <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>93</v>
@@ -2279,7 +2275,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2294,16 +2290,16 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2325,10 +2321,10 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>93</v>
@@ -2383,7 +2379,7 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
@@ -2403,7 +2399,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2429,10 +2425,10 @@
         <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2483,7 +2479,7 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
@@ -2503,7 +2499,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2526,13 +2522,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2583,7 +2579,7 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
@@ -2603,7 +2599,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2629,10 +2625,10 @@
         <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2683,7 +2679,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2703,7 +2699,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2726,13 +2722,13 @@
         <v>46</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2783,7 +2779,7 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
@@ -2803,7 +2799,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2826,13 +2822,13 @@
         <v>46</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2883,7 +2879,7 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
@@ -2903,7 +2899,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2926,13 +2922,13 @@
         <v>46</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2983,7 +2979,7 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>38</v>
@@ -3003,7 +2999,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3026,13 +3022,13 @@
         <v>46</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3083,7 +3079,7 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>38</v>
@@ -3103,7 +3099,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3126,13 +3122,13 @@
         <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3183,7 +3179,7 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
